--- a/@DataTable/DataTable_2000_Club.xlsx
+++ b/@DataTable/DataTable_2000_Club.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2724D-5BFF-4E91-8E92-A0C2CEDA1EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C999A90D-0FC4-49FB-8195-3CCAB54A40C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="4350" windowWidth="33225" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="3465" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JsonTable" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" activeCellId="1" sqref="C3 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/@DataTable/DataTable_2000_Club.xlsx
+++ b/@DataTable/DataTable_2000_Club.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C999A90D-0FC4-49FB-8195-3CCAB54A40C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8087CA0-6E29-4217-B234-1F39FB254EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="3465" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9585" yWindow="1785" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JsonTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,19 +41,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dummy_club</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dummy_club_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StudentList : Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>..\@UnityProject\Assets\@MyProject\Resources\Data\DataTable_2000_Club.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001, 1002, 1003, 1004, 1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대책위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만마전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006, 1007, 1008, 1009, 1010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,8 +136,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:C4" totalsRowShown="0">
-  <autoFilter ref="A2:C4" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:C5" totalsRowShown="0">
+  <autoFilter ref="A2:C5" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -405,7 +413,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" activeCellId="1" sqref="C3 C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -417,7 +425,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -428,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -436,10 +444,10 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1001</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -447,10 +455,10 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1002</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
